--- a/table.xlsx
+++ b/table.xlsx
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -88,6 +88,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -107,9 +111,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23407174103237097"/>
+          <c:x val="0.23407174103237099"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.66994203849518807"/>
+          <c:w val="0.66994203849518841"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -125,25 +129,25 @@
             <c:numRef>
               <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2262440</c:v>
+                  <c:v>50000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590667</c:v>
+                  <c:v>50000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>342583</c:v>
+                  <c:v>50000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301659</c:v>
+                  <c:v>50000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201735</c:v>
+                  <c:v>52631600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88699</c:v>
+                  <c:v>52631600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -159,57 +163,57 @@
             <c:numRef>
               <c:f>Лист1!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1592360</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>676133</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>492854</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248385</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202184</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101657</c:v>
+                  <c:v>62500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59087488"/>
-        <c:axId val="85229952"/>
+        <c:axId val="67778432"/>
+        <c:axId val="67779968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59087488"/>
+        <c:axId val="67778432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85229952"/>
+        <c:crossAx val="67779968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85229952"/>
+        <c:axId val="67779968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59087488"/>
+        <c:crossAx val="67778432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -222,7 +226,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,11 +583,11 @@
       <c r="A2" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>2262440</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1592360</v>
+      <c r="B2" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>62500000</v>
       </c>
       <c r="E2" s="1"/>
       <c r="H2" s="3"/>
@@ -594,11 +598,11 @@
       <c r="A3" s="1">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>590667</v>
-      </c>
-      <c r="C3">
-        <v>676133</v>
+      <c r="B3" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>62500000</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -606,46 +610,97 @@
       <c r="A4">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>342583</v>
-      </c>
-      <c r="C4">
-        <v>492854</v>
+      <c r="B4" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>62500000</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>301659</v>
-      </c>
-      <c r="C5">
-        <v>248385</v>
+      <c r="B5" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>62500000</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>64</v>
       </c>
-      <c r="B6">
-        <v>201735</v>
-      </c>
-      <c r="C6">
-        <v>202184</v>
+      <c r="B6" s="7">
+        <v>52631600</v>
+      </c>
+      <c r="C6" s="7">
+        <v>62500000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>128</v>
       </c>
-      <c r="B7" s="1">
-        <v>88699</v>
-      </c>
-      <c r="C7">
-        <v>101657</v>
+      <c r="B7" s="7">
+        <v>52631600</v>
+      </c>
+      <c r="C7" s="7">
+        <v>62500000</v>
       </c>
       <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
